--- a/14微震开发/财务/资金流2018.xlsx
+++ b/14微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,14 @@
   </si>
   <si>
     <t>多种材料费和路费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成来京火车票（卢安抢票）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +734,7 @@
   <dimension ref="A2:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -795,7 +803,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F50" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F51" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1637,8 +1645,22 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51">
+        <v>20180910</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51">
+        <v>429.5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>476018.95000000007</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="B52" s="1"/>
@@ -1656,7 +1678,7 @@
       </c>
       <c r="E56">
         <f>SUM(E3:E54)</f>
-        <v>27132.719999999998</v>
+        <v>27562.219999999998</v>
       </c>
     </row>
   </sheetData>

--- a/14微震开发/财务/资金流2018.xlsx
+++ b/14微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,14 @@
   </si>
   <si>
     <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种材料费和路费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H56"/>
+  <dimension ref="A2:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -803,7 +811,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F51" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F52" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1663,22 +1671,40 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52">
+        <v>20180916</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52">
+        <v>980.5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>475038.45000000007</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="56" spans="1:6">
-      <c r="D56">
-        <f>SUM(D3:D55)</f>
+    <row r="54" spans="1:6">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="57" spans="1:6">
+      <c r="D57">
+        <f>SUM(D3:D56)</f>
         <v>503581.17000000004</v>
       </c>
-      <c r="E56">
-        <f>SUM(E3:E54)</f>
-        <v>27562.219999999998</v>
+      <c r="E57">
+        <f>SUM(E3:E55)</f>
+        <v>28542.719999999998</v>
       </c>
     </row>
   </sheetData>

--- a/14微震开发/财务/资金流2018.xlsx
+++ b/14微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -442,9 +445,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -741,15 +746,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -763,13 +770,13 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -789,10 +796,10 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>50000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f>D3-E3</f>
         <v>50000</v>
       </c>
@@ -807,11 +814,11 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>420.5</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F52" si="0">F3+D4-E4</f>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F53" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -825,10 +832,10 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>270.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>49309</v>
       </c>
@@ -843,10 +850,10 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>427.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>48881.5</v>
       </c>
@@ -861,10 +868,10 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>565</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>48316.5</v>
       </c>
@@ -885,10 +892,10 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>285</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>48031.5</v>
       </c>
@@ -903,10 +910,10 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>130.69999999999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>47900.800000000003</v>
       </c>
@@ -921,10 +928,10 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>57900.800000000003</v>
       </c>
@@ -939,10 +946,10 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>5000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>62900.800000000003</v>
       </c>
@@ -957,10 +964,10 @@
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>5000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>67900.800000000003</v>
       </c>
@@ -975,10 +982,10 @@
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>5000</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>72900.800000000003</v>
       </c>
@@ -993,10 +1000,10 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>77900.800000000003</v>
       </c>
@@ -1011,10 +1018,10 @@
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>888.6</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>77012.2</v>
       </c>
@@ -1029,10 +1036,10 @@
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>100000</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>177012.2</v>
       </c>
@@ -1047,10 +1054,10 @@
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>120000</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>297012.2</v>
       </c>
@@ -1065,10 +1072,10 @@
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>100000</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>397012.2</v>
       </c>
@@ -1083,10 +1090,10 @@
       <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>100000</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>497012.2</v>
       </c>
@@ -1101,10 +1108,10 @@
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>29.82</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>497042.02</v>
       </c>
@@ -1119,10 +1126,10 @@
       <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>409.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
         <v>496632.52</v>
       </c>
@@ -1137,10 +1144,10 @@
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>2747</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
         <v>493885.52</v>
       </c>
@@ -1155,10 +1162,10 @@
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>128.19999999999999</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
         <v>493757.32</v>
       </c>
@@ -1173,10 +1180,10 @@
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>850</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
         <v>492907.32</v>
       </c>
@@ -1191,10 +1198,10 @@
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>644</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
         <v>492263.32</v>
       </c>
@@ -1212,10 +1219,10 @@
       <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>491763.32</v>
       </c>
@@ -1230,10 +1237,10 @@
       <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>1104</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <f t="shared" si="0"/>
         <v>490659.32</v>
       </c>
@@ -1248,10 +1255,10 @@
       <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>763</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
         <v>489896.32</v>
       </c>
@@ -1266,10 +1273,10 @@
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>355.8</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <f t="shared" si="0"/>
         <v>489540.52</v>
       </c>
@@ -1284,10 +1291,10 @@
       <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>946.5</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <f t="shared" si="0"/>
         <v>488594.02</v>
       </c>
@@ -1302,10 +1309,10 @@
       <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>2330</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <f t="shared" si="0"/>
         <v>486264.02</v>
       </c>
@@ -1320,10 +1327,10 @@
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <f t="shared" si="0"/>
         <v>486302.72000000003</v>
       </c>
@@ -1338,10 +1345,10 @@
       <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>1159.5</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <f t="shared" si="0"/>
         <v>485143.22000000003</v>
       </c>
@@ -1356,10 +1363,10 @@
       <c r="C34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>682.8</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <f t="shared" si="0"/>
         <v>484460.42000000004</v>
       </c>
@@ -1374,10 +1381,10 @@
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>69.7</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <f t="shared" si="0"/>
         <v>484390.72000000003</v>
       </c>
@@ -1392,10 +1399,10 @@
       <c r="C36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>970</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <f t="shared" si="0"/>
         <v>483420.72000000003</v>
       </c>
@@ -1410,10 +1417,10 @@
       <c r="C37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>3390</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <f t="shared" si="0"/>
         <v>480030.72000000003</v>
       </c>
@@ -1428,10 +1435,10 @@
       <c r="C38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>456</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <f t="shared" si="0"/>
         <v>479574.72000000003</v>
       </c>
@@ -1446,10 +1453,10 @@
       <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>25.15</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <f t="shared" si="0"/>
         <v>479599.87000000005</v>
       </c>
@@ -1464,10 +1471,10 @@
       <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>387.5</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <f t="shared" si="0"/>
         <v>479987.37000000005</v>
       </c>
@@ -1482,10 +1489,10 @@
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>387.5</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <f t="shared" si="0"/>
         <v>480374.87000000005</v>
       </c>
@@ -1500,10 +1507,10 @@
       <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>387.5</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <f t="shared" si="0"/>
         <v>480762.37000000005</v>
       </c>
@@ -1518,10 +1525,10 @@
       <c r="C43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>1937.5</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <f t="shared" si="0"/>
         <v>482699.87000000005</v>
       </c>
@@ -1536,10 +1543,10 @@
       <c r="C44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>387.5</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <f t="shared" si="0"/>
         <v>483087.37000000005</v>
       </c>
@@ -1554,10 +1561,10 @@
       <c r="C45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>1320.5</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <f t="shared" si="0"/>
         <v>481766.87000000005</v>
       </c>
@@ -1572,10 +1579,10 @@
       <c r="C46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>1290</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <f t="shared" si="0"/>
         <v>480476.87000000005</v>
       </c>
@@ -1590,10 +1597,10 @@
       <c r="C47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>1509.5</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <f t="shared" si="0"/>
         <v>478967.37000000005</v>
       </c>
@@ -1608,10 +1615,10 @@
       <c r="C48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>266.92</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <f t="shared" si="0"/>
         <v>478700.45000000007</v>
       </c>
@@ -1626,10 +1633,10 @@
       <c r="C49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>42</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <f t="shared" si="0"/>
         <v>478658.45000000007</v>
       </c>
@@ -1644,10 +1651,10 @@
       <c r="C50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>2210</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <f t="shared" si="0"/>
         <v>476448.45000000007</v>
       </c>
@@ -1662,10 +1669,10 @@
       <c r="C51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>429.5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <f t="shared" si="0"/>
         <v>476018.95000000007</v>
       </c>
@@ -1680,17 +1687,31 @@
       <c r="C52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>980.5</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <f t="shared" si="0"/>
         <v>475038.45000000007</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="A53">
+        <v>20180921</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="3">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>475058.46000000008</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="B54" s="1"/>
@@ -1698,11 +1719,11 @@
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="57" spans="1:6">
-      <c r="D57">
+      <c r="D57" s="3">
         <f>SUM(D3:D56)</f>
-        <v>503581.17000000004</v>
-      </c>
-      <c r="E57">
+        <v>503601.18000000005</v>
+      </c>
+      <c r="E57" s="3">
         <f>SUM(E3:E55)</f>
         <v>28542.719999999998</v>
       </c>
@@ -1710,7 +1731,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/14微震开发/财务/资金流2018.xlsx
+++ b/14微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,14 @@
   </si>
   <si>
     <t>多种材料费和路费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成离京车票和采购费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -744,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H57"/>
+  <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -818,7 +826,7 @@
         <v>420.5</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F53" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F55" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1714,18 +1722,66 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1"/>
+      <c r="A54">
+        <v>20181019</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="3">
+        <v>604.5</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>474453.96000000008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>20181019</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="3">
+        <v>447.5</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>474006.46000000008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
     <row r="57" spans="1:6">
-      <c r="D57" s="3">
-        <f>SUM(D3:D56)</f>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="62" spans="1:6">
+      <c r="D62" s="3">
+        <f>SUM(D3:D61)</f>
         <v>503601.18000000005</v>
       </c>
-      <c r="E57" s="3">
-        <f>SUM(E3:E55)</f>
-        <v>28542.719999999998</v>
+      <c r="E62" s="3">
+        <f>SUM(E3:E60)</f>
+        <v>29594.719999999998</v>
       </c>
     </row>
   </sheetData>

--- a/14微震开发/财务/资金流2018.xlsx
+++ b/14微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,14 @@
   </si>
   <si>
     <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云6个月费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +763,7 @@
   <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -826,7 +834,7 @@
         <v>420.5</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F55" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F56" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1758,8 +1766,22 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56">
+        <v>20181020</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="3">
+        <v>682.8</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>473323.66000000009</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="B57" s="1"/>
@@ -1781,7 +1803,7 @@
       </c>
       <c r="E62" s="3">
         <f>SUM(E3:E60)</f>
-        <v>29594.719999999998</v>
+        <v>30277.519999999997</v>
       </c>
     </row>
   </sheetData>

--- a/14微震开发/财务/资金流2018.xlsx
+++ b/14微震开发/财务/资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,34 @@
   </si>
   <si>
     <t>阿里云6个月费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成认购物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王总认购物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王旭东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安认购物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期部分利息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -760,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H62"/>
+  <dimension ref="A2:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -834,7 +862,7 @@
         <v>420.5</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F56" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F60" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1784,25 +1812,89 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57">
+        <v>20181221</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="3">
+        <v>20.76</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>473344.4200000001</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58">
+        <v>20190119</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="3">
+        <v>792</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>474136.4200000001</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="62" spans="1:6">
-      <c r="D62" s="3">
-        <f>SUM(D3:D61)</f>
-        <v>503601.18000000005</v>
-      </c>
-      <c r="E62" s="3">
-        <f>SUM(E3:E60)</f>
+      <c r="A59">
+        <v>20190119</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="3">
+        <v>94</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>474230.4200000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20190119</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="3">
+        <v>86</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>474316.4200000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="64" spans="1:6">
+      <c r="D64" s="3">
+        <f>SUM(D3:D63)</f>
+        <v>504593.94000000006</v>
+      </c>
+      <c r="E64" s="3">
+        <f>SUM(E3:E62)</f>
         <v>30277.519999999997</v>
       </c>
     </row>

--- a/14微震开发/财务/资金流2018.xlsx
+++ b/14微震开发/财务/资金流2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>活期部分利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -788,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H64"/>
+  <dimension ref="A2:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -862,7 +866,7 @@
         <v>420.5</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F60" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F61" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -1667,7 +1671,7 @@
         <v>478700.45000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>20180721</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>478658.45000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>20180804</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>476448.45000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>20180910</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>476018.95000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>20180916</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>475038.45000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>20180921</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>475058.46000000008</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>20181019</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>474453.96000000008</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>20181019</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>474006.46000000008</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>20181020</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>473323.66000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>20181221</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>473344.4200000001</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>20190119</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>474136.4200000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>20190119</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>474230.4200000001</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>20190119</v>
       </c>
@@ -1883,20 +1887,119 @@
         <v>474316.4200000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="64" spans="1:6">
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>20190125</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="3">
+        <v>387.5</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>474703.9200000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A62">
+        <v>20190125</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="3">
+        <v>387.5</v>
+      </c>
+      <c r="F62" s="3">
+        <f>F61+D62-E62</f>
+        <v>475091.4200000001</v>
+      </c>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A63">
+        <v>20190125</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="3">
+        <v>387.5</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" ref="F63:F65" si="1">F62+D63-E63</f>
+        <v>475478.9200000001</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A64">
+        <v>20190125</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D64" s="3">
-        <f>SUM(D3:D63)</f>
-        <v>504593.94000000006</v>
-      </c>
-      <c r="E64" s="3">
+        <v>1937.5</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="1"/>
+        <v>477416.4200000001</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A65">
+        <v>20190125</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="3">
+        <v>387.5</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="1"/>
+        <v>477803.9200000001</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="C67" s="1"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="D68" s="3">
+        <f>SUM(D3:D67)</f>
+        <v>508081.44000000006</v>
+      </c>
+      <c r="E68" s="3">
         <f>SUM(E3:E62)</f>
         <v>30277.519999999997</v>
       </c>
+      <c r="H68" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/14微震开发/财务/资金流2018.xlsx
+++ b/14微震开发/财务/资金流2018.xlsx
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67:M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -806,6 +806,9 @@
     <col min="5" max="5" width="10.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
